--- a/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today for this hearing on the fiscal year 2017 budget request for information technology [IT] and cyber programs.    Lately the Secretary has been highlighting the need for increased innovation in the Department of Defense [DOD] through public-private partnerships--and I was grateful that Secretary Ashton Carter was here yesterday on this issue, so it is right on point--as well as the importance of generating new capabilities to offset growing advantages of future potential adversaries.    I believe that information technology and cyber will both serve as key enablers and, at the same time, present key challenges for the Department as it tries to realize its vision.    In this time of fiscal constraint, I also believe it is equally important to enforce management rigor to make sure that we are squeezing the most out of every defense dollar where it makes sense. We need to learn from industry and use the kinds of business analytics and business intelligence methods that work so well in the commercial sphere. That also means using commercial tools to the maximum extent, especially in areas like business systems and cloud computing.    We need to find better ways to foster and maintain our own human capital to support the acquisition and management of information technology and cyber systems. In looking through this most recent budget request, I want to make sure the Department is emphasizing these two complementary tracks--increased innovation, as well as increased management discipline.    I would like to welcome my distinguished panel of witnesses and appreciate their perspectives on all of these issues. This panel includes the Honorable Terry Halvorsen, Chief Information Officer [CIO], Department of Defense, the Honorable Peter Levine, the Deputy Chief Management Officer [DCMO], Department of Defense.    I would like now to turn to my friend and ranking member, Mr. Jim Langevin from Rhode Island, for any comments he would like to make.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 25.]</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. Thank you for convening this hearing. And I want to thank you to our witnesses for testifying today on the President's fiscal year 2017 budget request for information technology and cyber programs.    Last week, we heard about the cyber mission force build and operations from Admiral Rogers, and today we will hear about the infrastructure our warfighters operate within and defend for the enterprise. Cyber Command [CYBERCOM] has advocated for the ability to see the network in order to provide better defense. The joint information environment, or JIE, is the guiding effort for achieving this capability. And today I hope to hear about the progress made under the JIE umbrella, governance for this effort, and service contributions.    Another major undertaking I would like to discuss today is implementing the Department's cloud strategy. The DOD's migration to the cloud has slowed due to laborious certification requirements and an acquisition system unable to keep up with cloud services procurement. This also seems to hinder any efficiency or cost savings that could otherwise be achieved.    Finally, the DOD has been tasked with building and maintaining the IT system for OPM's [Office of Personnel Management's] new National Background Investigation Bureau. While it makes sense the Department provide expertise on building a secure system, I am concerned the DOD is assuming all the risk by providing resources and assuming responsibility for decisions made outside the Department.    As a long-term advocate for cybersecurity within this subcommittee, I am glad we have taken the time to not only discuss the build and operations, but also the infrastructure our cyber warriors operate within every day over the last few weeks.    Again, thank you, Mr. Chairman, and I want to thank our witnesses for being here today to discuss this important topic. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,18 +67,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Halvorsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Halvorsen. Good afternoon, Mr. Chairman, Ranking Member, and distinguished members of the subcommittee. Thank you for this opportunity to testify before the subcommittee today on the Department's information technology budget request.    As the Department's CIO, I am the principal adviser to the Secretary of Defense for information management, IT, cybersecurity, communications, positioning, navigation, and timing, spectrum management, senior leadership, nuclear command control, and communications matters. Those latter responsibilities are clearly unique to the DOD.    My imperative at the CIO in managing this broad and diverse set of functions is to ensure that the Department has the information and communications technology capabilities needed to support the broad set of Department missions. This includes supporting our deployed forces and cyber mission forces, as well as business and warfighting support functions.    As Secretary Carter has stated, DOD must address strategic challenges across all domains, not just air, land, and sea, but increasingly in cyberspace. The Department's budget includes funding to address these challenges, including IT and cyber investments that are critical to the Department's warfighting, intelligence, and business missions.    As the CIO, I am driving cultural, business, technical improvements, and innovation into DOD's IT and cyber to better support defense missions and operations. My written testimony provides more detailed information on the Department's IT and cyberspace budget and priorities.    I want to emphasize that these efforts require teamwork and partnership within DOD, which includes DISA [Defense Information Systems Agency], USD [Under Secretary of Defense] AT&amp;L [Acquisition, Technology, and Logistics] and Policy, U.S. CYBERCOM, DCMO, and other partners.    External partnerships to DOD will also be critical, to include Congress, industry, and our allies. I strongly believe an expanded partnership with industry will be essential to expanding and maintaining technology advantages, while improving our fiscal accountability.    I thank you for your interest and support, and I look forward to your questions.    [The prepared statement of Mr. Halvorsen can be found in the Appendix on page 26.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Halvorsen. We now proceed to Mr. Levine.</t>
   </si>
   <si>
-    <t>Levine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Levine. Thank you, Chairman Wilson, Ranking Member Langevin, and members of the subcommittee.    I am Peter Levine, and I am the Deputy Chief Management Officer of the Department of Defense. Two years ago, this committee enacted legislation which will merge the offices of the DCMO and CIO. However, that legislation does not take effect until the beginning of the next administration, so until that time, the CIO, Mr. Halvorsen, will remain the responsible official within OSD [Office of the Secretary of Defense] for IT, cybersecurity, and many of the other issues addressed in your letter of invitation.    The DCMO's role, until such time as this merger takes place, is limited to reviewing and approving of investments in IT business systems. We do thank you in that regard for last year's NDAA [National Defense Authorization Act], in which you substantially streamlined and gave us more flexibility in the way we do this. We intend to use this flexibility in several ways.    First, we intend to change our focus from the discrete review of each individual small investment and focus more on portfolios, so we can be more forward-looking in our management of business systems. Second, we plan to focus much more on return on investment, so that we can ensure that when we invest in business systems, we actually realize the benefits that we should be able to get out of them, that we actually turn off the legacy systems and reduce manning, where we can develop more efficient and less manpower-intensive processes.    And finally, we are going to work to develop a streamlined process for business systems where we can align our business systems investment process, our CIO process, and our acquisition process into a single process so that we don't have to sequentially go through one after the other and put the program manager through recurring hoops as we go forward.    We are firmly committed to working with you as we try to make the business systems process more efficient and to improve the Department's investment process and look forward to your questions.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Levine can be found in the Appendix on page 35.]</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you. And I will get to the budget implications of this in just a minute, but how active are we in working with allies, NATO [North Atlantic Treaty Organization] allies, Israel, et cetera, in combating cyber threats and cyber attacks?</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>400081</t>
   </si>
   <si>
-    <t>Jim Cooper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. First, the Santa Claus question. Both of you mentioned that you would like to have more money. How much? And for what?</t>
   </si>
   <si>
@@ -220,9 +202,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman, and thank you to the panelists for being here today. I have two questions. The first one will be quite broad. The second one will be quite specific. As you are well aware, the threats to the United States have evolved dramatically in the last 10 years. State and non-state adversaries have adapted to a new digital environment quite well. And it is important that the United States invests in the time, training, and infrastructure to counter the whole spectrum of cyber threats.    So as we see in the news, cyber provocation against the DOD infrastructure continues to increase, what is your assessment of the DOD's ability to counter such intrusions today? And what can I tell soldiers that I represent at Fort Drum in my district what we are doing to ensure that they are protected? And what have we learned about the enemy? And how has that changed our approach? That is the first broad question.</t>
   </si>
   <si>
@@ -265,9 +244,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Mr. Halvorsen, can you talk to me broadly about in your testimony you talk about cloud computing. Where will cloud computing be in 5 years and in 10 years?</t>
   </si>
   <si>
@@ -293,9 +269,6 @@
   </si>
   <si>
     <t>412642</t>
-  </si>
-  <si>
-    <t>Brad Ashford</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. It is a long trip every morning. Thank you, Mr. Chairman, being able to get here.    Congressman Langevin raised the issue that I am trying to understand further. And your answers were good. I want to further understand it, though, a little bit, because we talk a lot about employee exchanges with the private sector and the need for additional authorities to do that.    It seems to me it is a critical part of the plan going forward and with the talent out there and the demands on the budget and being able to bring people in. And you have, Congressman Langevin, hit it 100 percent, and you did, as well, in your answers.    What do we have to do in order to--I mean, it seems to me that is something we should be able to move on. And what sort of authorities would we need in order to do that?</t>
@@ -760,11 +733,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -784,13 +755,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -812,11 +781,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -836,13 +803,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -864,11 +829,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -888,13 +851,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -916,11 +877,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -940,13 +899,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -966,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -994,11 +949,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1018,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1046,11 +997,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1070,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1098,11 +1045,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1122,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1150,11 +1093,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1174,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1200,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1226,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1252,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1278,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1304,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1330,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1356,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1382,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1410,11 +1333,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1434,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1460,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1486,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1512,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1538,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1566,11 +1477,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1590,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1616,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1642,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1668,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1694,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1720,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1746,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1772,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1798,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1824,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1850,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1876,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1904,11 +1789,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1928,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1954,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1980,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2006,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2032,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2058,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2084,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2110,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2136,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2162,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2188,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2214,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2242,11 +2101,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2266,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2292,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2318,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2344,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2370,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2396,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2422,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
+        <v>75</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
         <v>82</v>
-      </c>
-      <c r="G66" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2450,11 +2293,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2474,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2500,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2526,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2554,11 +2389,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2578,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2606,11 +2437,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2630,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2658,11 +2485,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2682,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2708,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2734,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2760,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2786,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2812,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2838,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2866,11 +2677,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2890,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2916,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2942,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2968,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2994,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
-      </c>
-      <c r="G88" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3022,11 +2821,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. I call this hearing of the Emerging Threats and Capabilities Subcommittee of the House Armed Services Committee to order. I am pleased to welcome everyone here today for this hearing on the fiscal year 2017 budget request for information technology [IT] and cyber programs.    Lately the Secretary has been highlighting the need for increased innovation in the Department of Defense [DOD] through public-private partnerships--and I was grateful that Secretary Ashton Carter was here yesterday on this issue, so it is right on point--as well as the importance of generating new capabilities to offset growing advantages of future potential adversaries.    I believe that information technology and cyber will both serve as key enablers and, at the same time, present key challenges for the Department as it tries to realize its vision.    In this time of fiscal constraint, I also believe it is equally important to enforce management rigor to make sure that we are squeezing the most out of every defense dollar where it makes sense. We need to learn from industry and use the kinds of business analytics and business intelligence methods that work so well in the commercial sphere. That also means using commercial tools to the maximum extent, especially in areas like business systems and cloud computing.    We need to find better ways to foster and maintain our own human capital to support the acquisition and management of information technology and cyber systems. In looking through this most recent budget request, I want to make sure the Department is emphasizing these two complementary tracks--increased innovation, as well as increased management discipline.    I would like to welcome my distinguished panel of witnesses and appreciate their perspectives on all of these issues. This panel includes the Honorable Terry Halvorsen, Chief Information Officer [CIO], Department of Defense, the Honorable Peter Levine, the Deputy Chief Management Officer [DCMO], Department of Defense.    I would like now to turn to my friend and ranking member, Mr. Jim Langevin from Rhode Island, for any comments he would like to make.    [The prepared statement of Mr. Wilson can be found in the Appendix on page 25.]</t>
   </si>
   <si>
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman. Thank you for convening this hearing. And I want to thank you to our witnesses for testifying today on the President's fiscal year 2017 budget request for information technology and cyber programs.    Last week, we heard about the cyber mission force build and operations from Admiral Rogers, and today we will hear about the infrastructure our warfighters operate within and defend for the enterprise. Cyber Command [CYBERCOM] has advocated for the ability to see the network in order to provide better defense. The joint information environment, or JIE, is the guiding effort for achieving this capability. And today I hope to hear about the progress made under the JIE umbrella, governance for this effort, and service contributions.    Another major undertaking I would like to discuss today is implementing the Department's cloud strategy. The DOD's migration to the cloud has slowed due to laborious certification requirements and an acquisition system unable to keep up with cloud services procurement. This also seems to hinder any efficiency or cost savings that could otherwise be achieved.    Finally, the DOD has been tasked with building and maintaining the IT system for OPM's [Office of Personnel Management's] new National Background Investigation Bureau. While it makes sense the Department provide expertise on building a secure system, I am concerned the DOD is assuming all the risk by providing resources and assuming responsibility for decisions made outside the Department.    As a long-term advocate for cybersecurity within this subcommittee, I am glad we have taken the time to not only discuss the build and operations, but also the infrastructure our cyber warriors operate within every day over the last few weeks.    Again, thank you, Mr. Chairman, and I want to thank our witnesses for being here today to discuss this important topic. And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,12 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Halvorsen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Halvorsen. Good afternoon, Mr. Chairman, Ranking Member, and distinguished members of the subcommittee. Thank you for this opportunity to testify before the subcommittee today on the Department's information technology budget request.    As the Department's CIO, I am the principal adviser to the Secretary of Defense for information management, IT, cybersecurity, communications, positioning, navigation, and timing, spectrum management, senior leadership, nuclear command control, and communications matters. Those latter responsibilities are clearly unique to the DOD.    My imperative at the CIO in managing this broad and diverse set of functions is to ensure that the Department has the information and communications technology capabilities needed to support the broad set of Department missions. This includes supporting our deployed forces and cyber mission forces, as well as business and warfighting support functions.    As Secretary Carter has stated, DOD must address strategic challenges across all domains, not just air, land, and sea, but increasingly in cyberspace. The Department's budget includes funding to address these challenges, including IT and cyber investments that are critical to the Department's warfighting, intelligence, and business missions.    As the CIO, I am driving cultural, business, technical improvements, and innovation into DOD's IT and cyber to better support defense missions and operations. My written testimony provides more detailed information on the Department's IT and cyberspace budget and priorities.    I want to emphasize that these efforts require teamwork and partnership within DOD, which includes DISA [Defense Information Systems Agency], USD [Under Secretary of Defense] AT&amp;L [Acquisition, Technology, and Logistics] and Policy, U.S. CYBERCOM, DCMO, and other partners.    External partnerships to DOD will also be critical, to include Congress, industry, and our allies. I strongly believe an expanded partnership with industry will be essential to expanding and maintaining technology advantages, while improving our fiscal accountability.    I thank you for your interest and support, and I look forward to your questions.    [The prepared statement of Mr. Halvorsen can be found in the Appendix on page 26.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Halvorsen. We now proceed to Mr. Levine.</t>
   </si>
   <si>
+    <t>Levine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Levine. Thank you, Chairman Wilson, Ranking Member Langevin, and members of the subcommittee.    I am Peter Levine, and I am the Deputy Chief Management Officer of the Department of Defense. Two years ago, this committee enacted legislation which will merge the offices of the DCMO and CIO. However, that legislation does not take effect until the beginning of the next administration, so until that time, the CIO, Mr. Halvorsen, will remain the responsible official within OSD [Office of the Secretary of Defense] for IT, cybersecurity, and many of the other issues addressed in your letter of invitation.    The DCMO's role, until such time as this merger takes place, is limited to reviewing and approving of investments in IT business systems. We do thank you in that regard for last year's NDAA [National Defense Authorization Act], in which you substantially streamlined and gave us more flexibility in the way we do this. We intend to use this flexibility in several ways.    First, we intend to change our focus from the discrete review of each individual small investment and focus more on portfolios, so we can be more forward-looking in our management of business systems. Second, we plan to focus much more on return on investment, so that we can ensure that when we invest in business systems, we actually realize the benefits that we should be able to get out of them, that we actually turn off the legacy systems and reduce manning, where we can develop more efficient and less manpower-intensive processes.    And finally, we are going to work to develop a streamlined process for business systems where we can align our business systems investment process, our CIO process, and our acquisition process into a single process so that we don't have to sequentially go through one after the other and put the program manager through recurring hoops as we go forward.    We are firmly committed to working with you as we try to make the business systems process more efficient and to improve the Department's investment process and look forward to your questions.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Levine can be found in the Appendix on page 35.]</t>
   </si>
   <si>
@@ -139,6 +160,12 @@
     <t>412191</t>
   </si>
   <si>
+    <t>Lamborn</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you. And I will get to the budget implications of this in just a minute, but how active are we in working with allies, NATO [North Atlantic Treaty Organization] allies, Israel, et cetera, in combating cyber threats and cyber attacks?</t>
   </si>
   <si>
@@ -160,6 +187,12 @@
     <t>400081</t>
   </si>
   <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cooper. Thank you, Mr. Chairman. First, the Santa Claus question. Both of you mentioned that you would like to have more money. How much? And for what?</t>
   </si>
   <si>
@@ -202,6 +235,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman, and thank you to the panelists for being here today. I have two questions. The first one will be quite broad. The second one will be quite specific. As you are well aware, the threats to the United States have evolved dramatically in the last 10 years. State and non-state adversaries have adapted to a new digital environment quite well. And it is important that the United States invests in the time, training, and infrastructure to counter the whole spectrum of cyber threats.    So as we see in the news, cyber provocation against the DOD infrastructure continues to increase, what is your assessment of the DOD's ability to counter such intrusions today? And what can I tell soldiers that I represent at Fort Drum in my district what we are doing to ensure that they are protected? And what have we learned about the enemy? And how has that changed our approach? That is the first broad question.</t>
   </si>
   <si>
@@ -244,6 +283,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. Mr. Halvorsen, can you talk to me broadly about in your testimony you talk about cloud computing. Where will cloud computing be in 5 years and in 10 years?</t>
   </si>
   <si>
@@ -269,6 +314,12 @@
   </si>
   <si>
     <t>412642</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ashford. It is a long trip every morning. Thank you, Mr. Chairman, being able to get here.    Congressman Langevin raised the issue that I am trying to understand further. And your answers were good. I want to further understand it, though, a little bit, because we talk a lot about employee exchanges with the private sector and the need for additional authorities to do that.    It seems to me it is a critical part of the plan going forward and with the talent out there and the demands on the budget and being able to bring people in. And you have, Congressman Langevin, hit it 100 percent, and you did, as well, in your answers.    What do we have to do in order to--I mean, it seems to me that is something we should be able to move on. And what sort of authorities would we need in order to do that?</t>
@@ -683,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +742,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2117 +764,2488 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>57</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>57</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
       <c r="H47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>89</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>89</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>89</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G68" t="s">
+        <v>100</v>
+      </c>
       <c r="H68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G70" t="s">
+        <v>100</v>
+      </c>
       <c r="H70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
       <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G88" t="s">
+        <v>73</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20077.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Langevin</t>
   </si>
   <si>
@@ -158,6 +167,9 @@
   </si>
   <si>
     <t>412191</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Lamborn</t>
@@ -734,7 +746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +754,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,2485 +779,2680 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G60" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>94</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>22</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H88" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
